--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value415.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value415.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189435420325302</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.896601676853197</v>
+        <v>3.496614933013916</v>
       </c>
       <c r="C1">
-        <v>3.016471272932529</v>
+        <v>1.899153590202332</v>
       </c>
       <c r="D1">
-        <v>2.144713683949324</v>
+        <v>1.488698244094849</v>
       </c>
       <c r="E1">
-        <v>0.5713279266852801</v>
+        <v>1.353420376777649</v>
       </c>
     </row>
   </sheetData>
